--- a/data_excel/接口测试用六.xlsx
+++ b/data_excel/接口测试用六.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -477,8 +477,8 @@
     <col width="18.375" customWidth="1" style="2" min="7" max="7"/>
     <col width="18.25" customWidth="1" style="2" min="8" max="8"/>
     <col width="40.875" customWidth="1" style="2" min="9" max="9"/>
-    <col width="9" customWidth="1" style="2" min="10" max="16"/>
-    <col width="9" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="10" max="18"/>
+    <col width="9" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="7">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.076532</v>
+        <v>0.17636</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>200</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.079067</v>
+        <v>0.078386</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.07896400000000001</v>
+        <v>0.074767</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>200</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.07646799999999999</v>
+        <v>0.07424699999999999</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>200</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.078107</v>
+        <v>0.078223</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>200</v>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.07661999999999999</v>
+        <v>0.07348399999999999</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>200</v>

--- a/data_excel/接口测试用六.xlsx
+++ b/data_excel/接口测试用六.xlsx
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.17636</v>
+        <v>0.07929700000000001</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>200</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.078386</v>
+        <v>0.07718800000000001</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>200</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.074767</v>
+        <v>0.07509200000000001</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>200</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.07424699999999999</v>
+        <v>0.07881100000000001</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>200</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.078223</v>
+        <v>0.07964400000000001</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>200</v>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.07348399999999999</v>
+        <v>0.08133600000000001</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>200</v>
